--- a/xlsx/Nginx_intext.xlsx
+++ b/xlsx/Nginx_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Nginx</t>
   </si>
@@ -29,7 +29,7 @@
     <t>软件设计</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Nginx</t>
+    <t>政策_政策_维基百科_Nginx</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Igor_Sysoev</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>軟件開發</t>
+    <t>软件开发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E7%89%88%E6%9C%AC%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件版本週期</t>
+    <t>软件版本周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E4%BC%BA%E6%9C%8D%E5%99%A8</t>
   </si>
   <si>
-    <t>網頁伺服器</t>
+    <t>网页伺服器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/BSD%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>BSD許可證</t>
+    <t>BSD许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%93%E5%BA%93_(%E7%89%88%E6%9C%AC%E6%8E%A7%E5%88%B6)</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%88%88%E7%88%BE%C2%B7%E8%B3%BD%E7%B4%A2%E8%80%B6%E5%A4%AB</t>
   </si>
   <si>
-    <t>伊戈爾·賽索耶夫</t>
+    <t>伊戈尔·赛索耶夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%BA%90%E8%BD%AF%E4%BB%B6</t>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BSD%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
-  </si>
-  <si>
-    <t>BSD许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apache_HTTP_Server</t>
@@ -1351,7 +1348,7 @@
         <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1406,10 +1403,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1435,10 +1432,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1464,10 +1461,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1493,10 +1490,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>

--- a/xlsx/Nginx_intext.xlsx
+++ b/xlsx/Nginx_intext.xlsx
@@ -1035,7 +1035,7 @@
         <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
